--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3391103.79882265</v>
+        <v>3495283.433273721</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>165.1217134651664</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>34.74121858533989</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>82.57906258117903</v>
+        <v>154.1566586333677</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.91534106849895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>40.12779304160806</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>20.80993688633079</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>62.50124316952873</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>203.7492494790525</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.53495267724483</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.8179120234736</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>8.612336174460104</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>53.30076123484837</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.2607556244444</v>
+        <v>106.1798850986046</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>102.1656705247862</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,19 +2058,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.8579886296204</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>71.56327578339665</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>218.6444667192159</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>53.30076123484837</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>75.12653431054498</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>28.23631843387907</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>13.03790159951642</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="E43" t="n">
-        <v>79.1153231220618</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>15.51491006411133</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1845.410930903095</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1845.410930903095</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1487.145232296344</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1101.3569796981</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>690.3710749084923</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>275.2986247534888</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.7846764101</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139986</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878906</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1845.410930903095</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4400,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962483</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622241</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039848</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541938</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916657</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193523</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>2960.67628566708</v>
+        <v>1681.750294246659</v>
       </c>
       <c r="U4" t="n">
-        <v>2671.573418792723</v>
+        <v>1392.647427372303</v>
       </c>
       <c r="V4" t="n">
-        <v>2671.573418792723</v>
+        <v>1137.962939166416</v>
       </c>
       <c r="W4" t="n">
-        <v>2671.573418792723</v>
+        <v>1137.962939166416</v>
       </c>
       <c r="X4" t="n">
-        <v>2671.573418792723</v>
+        <v>909.9733882683989</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792723</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4607,10 +4609,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,37 +4649,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5839474470786</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
         <v>624.6477645191717</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.157560278958</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.024991420848</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2324122773183</v>
+        <v>975.2294612008255</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>2123.189610021303</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1754.227093080891</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1395.961394474141</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3229.105869409934</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3023.128121794156</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2769.597645067992</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2438.534757724422</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2438.534757724422</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X8" t="n">
-        <v>2438.534757724422</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1638.191681214136</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1638.191681214136</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X10" t="n">
-        <v>1410.202130316119</v>
+        <v>582.107736656017</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.409551172589</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>924.834428639718</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928005</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167292</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2354.274259167292</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991042</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>251.5626541092274</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249859</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5674,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1219.703397336071</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>991.7138464380538</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,19 +5831,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429802</v>
@@ -5947,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2815.530845237132</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>2646.594662309225</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>2646.594662309225</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.594662309225</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309225</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024105</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4681.594624329723</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4498.739789984627</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4279.138325007569</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3990.063098351767</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>3735.37861014588</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>3445.961440108919</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>3217.971889210902</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y25" t="n">
-        <v>2997.179310067372</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,16 +6314,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6455,43 +6457,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6543,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773688</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>264.0500279773688</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6932,28 +6934,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>2878.328163333971</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>3475.706650960523</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>3475.706650960523</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>4027.61638119981</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>4451.239530694878</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2815.530845237132</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>2646.594662309225</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>2646.594662309225</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309225</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309225</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4681.594624329723</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4498.739789984627</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4279.138325007569</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3990.063098351767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3735.37861014588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3445.961440108919</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3217.971889210902</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2997.179310067372</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
         <v>175.9033664000583</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311989</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7557007032921</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D43" t="n">
-        <v>482.6390612909563</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2431.291457252875</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1922.614765620015</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>112.2233770574205</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.57122455749285</v>
+        <v>73.65209508333265</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.08115057384164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>74.66500970697064</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>214.9597225531944</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194085</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>7.065188669821225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>112.2233770574205</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>92.12028678808285</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>137.2878198583898</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194085</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>273.1465727897277</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="E43" t="n">
-        <v>67.31863952450738</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>165.5113759375333</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445015</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132554</v>
@@ -26344,16 +26346,16 @@
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132548</v>
+        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
         <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683054</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26445,7 +26447,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683049</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769398.9480827046</v>
+        <v>-769398.9480827055</v>
       </c>
       <c r="C6" t="n">
-        <v>559345.7976448871</v>
+        <v>559345.7976448876</v>
       </c>
       <c r="D6" t="n">
-        <v>559345.7976448874</v>
+        <v>559345.7976448875</v>
       </c>
       <c r="E6" t="n">
-        <v>307078.7489351622</v>
+        <v>307078.7489351624</v>
       </c>
       <c r="F6" t="n">
-        <v>632491.210742518</v>
+        <v>632491.2107425174</v>
       </c>
       <c r="G6" t="n">
-        <v>632491.2107425176</v>
+        <v>632491.2107425173</v>
       </c>
       <c r="H6" t="n">
-        <v>632491.210742518</v>
+        <v>632491.2107425177</v>
       </c>
       <c r="I6" t="n">
-        <v>632491.2107425178</v>
+        <v>632491.2107425177</v>
       </c>
       <c r="J6" t="n">
         <v>414960.0083452404</v>
@@ -26549,19 +26551,19 @@
         <v>632491.210742518</v>
       </c>
       <c r="L6" t="n">
+        <v>632491.2107425177</v>
+      </c>
+      <c r="M6" t="n">
+        <v>547436.1828070061</v>
+      </c>
+      <c r="N6" t="n">
         <v>632491.2107425178</v>
       </c>
-      <c r="M6" t="n">
-        <v>547436.1828070059</v>
-      </c>
-      <c r="N6" t="n">
-        <v>632491.2107425177</v>
-      </c>
       <c r="O6" t="n">
-        <v>632491.210742518</v>
+        <v>632491.2107425176</v>
       </c>
       <c r="P6" t="n">
-        <v>632491.2107425174</v>
+        <v>632491.2107425181</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>129.4860509221541</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>293.011039884795</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>136.9698866949902</v>
+        <v>65.3922906428015</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>302.8185005949816</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>314.5552485790749</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>127.8055361318816</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>163.2084122195084</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>178.1811205932093</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>13.652809110931</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.0140681584637</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>217.0973192145771</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28390,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>677.7372574190229</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>528.7932908500045</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>340.7767527663071</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742437</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0225991093093</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>574.6535388222619</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>399.4395445221152</v>
+        <v>307.4654529393634</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33032,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,7 +33511,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>615.1181176946646</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048109</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>489.8124929257571</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.2560498238277</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>535.1410129745784</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>386.6592569279862</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7949786802857</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>8.18116013495035</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>82.88662398579325</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>265.4651371077849</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36680,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>483.7764056113314</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>205.0040068187893</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3495283.433273721</v>
+        <v>3491270.823259729</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7873978.5989833</v>
+        <v>7873978.598983301</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>385.9564935976059</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>34.74121858533989</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>154.1566586333677</v>
+        <v>165.6040273698186</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>40.12779304160806</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506823</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>20.80993688633079</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>203.7492494790525</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>256.4217010493346</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>8.612336174460104</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>53.30076123484837</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.1798850986046</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>102.1656705247862</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>71.56327578339665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>218.6444667192159</v>
+        <v>163.3542162903876</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G28" t="n">
-        <v>53.30076123484837</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>140.7058473537592</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>75.12653431054498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.8302520576399</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>13.03790159951642</v>
+        <v>217.6866318399304</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>14.92158678358339</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>15.51491006411133</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1908.990616856004</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1550.724918249254</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1164.936665651009</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>753.9507608614019</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>3084.535934008201</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.5323442946291</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>507.5323442946291</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1681.750294246659</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="U4" t="n">
-        <v>1392.647427372303</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V4" t="n">
-        <v>1137.962939166416</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>1137.962939166416</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>909.9733882683989</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>689.1808091248688</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796261</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392144</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5809963705858</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>793.5809963705858</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.022040344356</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2294612008255</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2123.189610021303</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1754.227093080891</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1395.961394474141</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997115</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2513.328941997115</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2123.189610021303</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.3151575124869</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251686</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>582.107736656017</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.3151575124869</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,7 +5050,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5068,19 +5068,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449245</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>229.7425191625314</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>229.7425191625314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,55 +5269,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273898</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>924.834428639718</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,25 +5503,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1361.415228493873</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.425677595856</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E28" t="n">
-        <v>229.7425191625314</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F28" t="n">
-        <v>229.7425191625314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
@@ -6478,22 +6478,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7066105458822</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6697,28 +6697,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
@@ -6730,22 +6730,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,70 +6919,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118212</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2878.328163333971</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3475.706650960523</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3475.706650960523</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4027.61638119981</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4451.239530694878</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>533.5582272005026</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7490,25 +7490,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2431.291457252875</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2211.689992275817</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1922.614765620015</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1667.930277414128</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1378.513107377167</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1150.52355647915</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>112.2233770574205</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.65209508333265</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>65.08115057384164</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>35.11263957635547</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>7.065188669821225</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G28" t="n">
-        <v>112.2233770574205</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>45.44677382459308</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>92.12028678808285</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>273.1465727897277</v>
+        <v>68.49784254931379</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>165.5113759375333</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445015</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445015</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445015</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244628</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244625</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132548</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818182</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92183.8989181818</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818172</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818172</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818175</v>
-      </c>
       <c r="E4" t="n">
+        <v>12996.86414683048</v>
+      </c>
+      <c r="F4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12996.86414683054</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26447,10 +26447,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769398.9480827055</v>
+        <v>-769398.9480827048</v>
       </c>
       <c r="C6" t="n">
-        <v>559345.7976448876</v>
+        <v>559345.7976448877</v>
       </c>
       <c r="D6" t="n">
-        <v>559345.7976448875</v>
+        <v>559345.7976448871</v>
       </c>
       <c r="E6" t="n">
-        <v>307078.7489351624</v>
+        <v>306731.3696808057</v>
       </c>
       <c r="F6" t="n">
-        <v>632491.2107425174</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="G6" t="n">
-        <v>632491.2107425173</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="H6" t="n">
-        <v>632491.2107425177</v>
+        <v>632143.831488161</v>
       </c>
       <c r="I6" t="n">
-        <v>632491.2107425177</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="J6" t="n">
-        <v>414960.0083452404</v>
+        <v>414612.6290908834</v>
       </c>
       <c r="K6" t="n">
-        <v>632491.210742518</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="L6" t="n">
-        <v>632491.2107425177</v>
+        <v>632143.831488161</v>
       </c>
       <c r="M6" t="n">
-        <v>547436.1828070061</v>
+        <v>547088.8035526489</v>
       </c>
       <c r="N6" t="n">
-        <v>632491.2107425178</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="O6" t="n">
-        <v>632491.2107425176</v>
+        <v>632143.8314881609</v>
       </c>
       <c r="P6" t="n">
-        <v>632491.2107425181</v>
+        <v>632143.8314881608</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>24.96523205584759</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>293.011039884795</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>65.3922906428015</v>
+        <v>53.9449219063506</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>314.5552485790749</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>108.8774149194526</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>127.8055361318816</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>178.1811205932093</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>150.4543446923768</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>217.0973192145771</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>677.7372574190229</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>528.7932908500045</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>344.9857809048109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>489.8124929257571</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>535.1410129745784</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>386.6592569279862</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>82.88662398579325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>205.0040068187893</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>347.2162484813126</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3491270.823259729</v>
+        <v>3493031.353562513</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7873978.598983301</v>
+        <v>7873978.598983302</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>385.9564935976059</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>121.50912103675</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>165.6040273698186</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>82.57906258117971</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222593</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>218.8748435506823</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>77.31354443380384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>256.4217010493346</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>260.8536857590186</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.70057996958639</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>180.2794366746835</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>31.26260713376619</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>111.3213230702134</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>163.3542162903876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>70.04554881124324</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>140.7058473537592</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>242.7989073183574</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>217.6866318399304</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>41.74133133758772</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2277.953133796416</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1908.990616856004</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1550.724918249254</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1164.936665651009</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>753.9507608614019</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>3092.578667240559</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796416</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796416</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1478.501411349798</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1478.501411349798</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.501411349798</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F5" t="n">
         <v>77.54416254678284</v>
@@ -4567,52 +4567,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,7 +4661,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
         <v>2407.41198488674</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218339</v>
@@ -4731,19 +4731,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490663</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
         <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,25 +5062,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5758,22 +5758,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326791</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.530292372932</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>853.5941094450255</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>703.4774700326898</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>555.5643764502967</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.37805728168</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.971336346702</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.178757203172</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="32">
@@ -6694,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,25 +6709,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.222762528164</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.538274322277</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>37.12601365260474</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.11263957635547</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>106.0841272570749</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>75.37549921168801</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>43.72409101823357</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.49784254931379</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>24.63391537253393</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445015</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="15">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
@@ -26349,13 +26349,13 @@
         <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818182</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818183</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
@@ -26441,10 +26441,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769398.9480827048</v>
+        <v>-769398.9480827056</v>
       </c>
       <c r="C6" t="n">
-        <v>559345.7976448877</v>
+        <v>559345.7976448881</v>
       </c>
       <c r="D6" t="n">
-        <v>559345.7976448871</v>
+        <v>559345.797644887</v>
       </c>
       <c r="E6" t="n">
-        <v>306731.3696808057</v>
+        <v>307044.0110097268</v>
       </c>
       <c r="F6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.472817082</v>
       </c>
       <c r="G6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.472817082</v>
       </c>
       <c r="H6" t="n">
-        <v>632143.831488161</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="I6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.472817082</v>
       </c>
       <c r="J6" t="n">
-        <v>414612.6290908834</v>
+        <v>414925.2704198046</v>
       </c>
       <c r="K6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="L6" t="n">
-        <v>632143.831488161</v>
+        <v>632456.4728170823</v>
       </c>
       <c r="M6" t="n">
-        <v>547088.8035526489</v>
+        <v>547401.4448815702</v>
       </c>
       <c r="N6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="O6" t="n">
-        <v>632143.8314881609</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="P6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.4728170822</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.96523205584759</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>206.2431374333848</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.9449219063506</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>136.0055907709151</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108.8774149194522</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8774149194526</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423654</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911122</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>150.4543446923768</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>108.8774149194505</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>83.32522828944184</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
